--- a/biology/Biochimie/Xylane/Xylane.xlsx
+++ b/biology/Biochimie/Xylane/Xylane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le xylane est un composant principal des hémicelluloses, et le deuxième polysaccharide naturel le plus abondant après le xyloglucane. Les xylanes sont des polymères de xyloses[2].
+Le xylane est un composant principal des hémicelluloses, et le deuxième polysaccharide naturel le plus abondant après le xyloglucane. Les xylanes sont des polymères de xyloses.
 Plusieurs enzymes sont nécessaires à la dégradation de xylane, mais la principale enzyme impliquée est la xylanase. Les xylanases sont des enzymes glycosyles hydrolases qui catalysent l'hydrolyse de β-1,4-glucosidiques en xylane via un double mécanisme de déplacement.
 L'hydrolyse des xylanes donne du xylose. Le xylose est réduit pour donner un polyol non naturel: le xylitol.
 Ces dernières années, les applications de la biotechnologie des xylanases/xylane se sont élargies sensiblement : ces composants sont aujourd'hui employés comme suppléments dans la fabrication du papier, l'alimentation animale, le biobleaching des pâtes et papiers et dans la production de bioéthanol.
-Le numéro CAS du 1,3-Xylane est 9014-63-5 et son numéro EINECS 232-760-6[3]. Sa formule chimique est (C5H8O5)n.
+Le numéro CAS du 1,3-Xylane est 9014-63-5 et son numéro EINECS 232-760-6. Sa formule chimique est (C5H8O5)n.
 </t>
         </is>
       </c>
